--- a/models/calculation engines/AL quarterly chart pack/Outputs/Changjiang & LME Daily.xlsx
+++ b/models/calculation engines/AL quarterly chart pack/Outputs/Changjiang & LME Daily.xlsx
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.133</v>
+        <v>6.132999999999999</v>
       </c>
       <c r="C45" t="n">
         <v>1800.25</v>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>6.367</v>
+        <v>6.367000000000001</v>
       </c>
       <c r="C258" t="n">
         <v>1624.25</v>
@@ -15269,7 +15269,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>6.883</v>
+        <v>6.882999999999999</v>
       </c>
       <c r="C781" t="n">
         <v>1872.75</v>
@@ -15630,13 +15630,13 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>0</v>
+        <v>6.8988</v>
       </c>
       <c r="C800" t="n">
         <v>1881.5</v>
       </c>
       <c r="D800" t="n">
-        <v>0</v>
+        <v>12980.0922</v>
       </c>
       <c r="E800" t="n">
         <v>11698.27586206897</v>
@@ -16238,7 +16238,7 @@
         </is>
       </c>
       <c r="B832" t="n">
-        <v>0</v>
+        <v>6.874</v>
       </c>
       <c r="C832" t="n">
         <v>0</v>
@@ -16295,7 +16295,7 @@
         </is>
       </c>
       <c r="B835" t="n">
-        <v>0</v>
+        <v>6.8785</v>
       </c>
       <c r="C835" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         </is>
       </c>
       <c r="B1215" t="n">
-        <v>6.367</v>
+        <v>6.367000000000001</v>
       </c>
       <c r="C1215" t="n">
         <v>2268.5</v>
@@ -34022,7 +34022,7 @@
         </is>
       </c>
       <c r="B1768" t="n">
-        <v>7.008</v>
+        <v>7.007999999999999</v>
       </c>
       <c r="C1768" t="n">
         <v>1817.25</v>
